--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Davies.Spring.010920.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Davies.Spring.010920.xlsx_with_dialog_acts.xlsx
@@ -509,12 +509,12 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -661,12 +661,12 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1007,12 +1007,12 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1121,12 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1277,12 +1277,12 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1657,12 +1657,12 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1809,12 +1809,12 @@
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2075,12 +2075,12 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2459,12 +2459,12 @@
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2687,12 +2687,12 @@
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -3147,12 +3147,12 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3337,12 +3337,12 @@
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3565,12 +3565,12 @@
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3603,12 +3603,12 @@
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3679,12 +3679,12 @@
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -4173,12 +4173,12 @@
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4325,12 +4325,12 @@
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4363,12 +4363,12 @@
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4933,12 +4933,12 @@
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4971,12 +4971,12 @@
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5047,12 +5047,12 @@
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5431,12 +5431,12 @@
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5701,12 +5701,12 @@
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6427,12 +6427,12 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6465,12 +6465,12 @@
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6807,12 +6807,12 @@
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7719,12 +7719,12 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9505,12 +9505,12 @@
       <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9657,12 +9657,12 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9885,12 +9885,12 @@
       <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -10079,12 +10079,12 @@
       <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10687,12 +10687,12 @@
       <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10877,12 +10877,12 @@
       <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11523,12 +11523,12 @@
       <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11713,12 +11713,12 @@
       <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11793,12 +11793,12 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -11869,12 +11869,12 @@
       <c r="H300" t="inlineStr"/>
       <c r="I300" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -11907,12 +11907,12 @@
       <c r="H301" t="inlineStr"/>
       <c r="I301" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11945,12 +11945,12 @@
       <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12211,12 +12211,12 @@
       <c r="H309" t="inlineStr"/>
       <c r="I309" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12401,12 +12401,12 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12439,12 +12439,12 @@
       <c r="H315" t="inlineStr"/>
       <c r="I315" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12515,12 +12515,12 @@
       <c r="H317" t="inlineStr"/>
       <c r="I317" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
